--- a/2022/data/processed/AOOS.xlsx
+++ b/2022/data/processed/AOOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2022\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C30FD9D-BD62-4AC5-B3B4-9CB9CF5BD06D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579A4FC-3FBE-4D38-A844-5099E3F53123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3416,8 +3416,8 @@
   <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5535,7 +5535,7 @@
         <v>55.339500000000001</v>
       </c>
       <c r="G34" s="6">
-        <v>-1331.644231</v>
+        <v>-131.64423099999999</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>72</v>
@@ -11558,7 +11558,7 @@
     <col min="17" max="18" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45">
+    <row r="1" spans="1:26" ht="90">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/2022/data/processed/AOOS.xlsx
+++ b/2022/data/processed/AOOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2022\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8579A4FC-3FBE-4D38-A844-5099E3F53123}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B8A120-1235-4D0F-8B0D-0631B8960CF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="814">
   <si>
     <t>RA</t>
   </si>
@@ -1242,9 +1242,6 @@
   </si>
   <si>
     <t>5/5/2015; 8/3/16</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>Alyeska Ski Resort</t>
@@ -3416,8 +3413,8 @@
   <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3425,7 +3422,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -7942,7 +7939,7 @@
         <v>331</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="M72" s="19" t="s">
         <v>333</v>
@@ -8000,7 +7997,7 @@
         <v>341</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>343</v>
@@ -8062,31 +8059,31 @@
         <v>350</v>
       </c>
       <c r="J74" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="L74" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M74" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N74" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="O74" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="P74" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="O74" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="P74" s="6" t="s">
+      <c r="Q74" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="Q74" s="6" t="s">
+      <c r="R74" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
@@ -8102,11 +8099,11 @@
         <v>18</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>349</v>
@@ -8124,31 +8121,31 @@
         <v>42129</v>
       </c>
       <c r="J75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M75" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N75" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="N75" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="O75" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P75" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q75" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="Q75" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="R75" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
@@ -8164,11 +8161,11 @@
         <v>18</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>349</v>
@@ -8183,34 +8180,34 @@
         <v>72</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J76" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M76" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N76" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="N76" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="O76" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P76" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q76" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="Q76" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="R76" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -8226,11 +8223,11 @@
         <v>18</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>349</v>
@@ -8248,31 +8245,31 @@
         <v>42129</v>
       </c>
       <c r="J77" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="L77" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M77" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N77" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="N77" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="O77" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P77" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q77" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="Q77" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="R77" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
@@ -8288,11 +8285,11 @@
         <v>18</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>349</v>
@@ -8310,31 +8307,31 @@
         <v>42129</v>
       </c>
       <c r="J78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="L78" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M78" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N78" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="N78" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="O78" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P78" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q78" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="Q78" s="6" t="s">
+      <c r="R78" s="32" t="s">
         <v>373</v>
-      </c>
-      <c r="R78" s="32" t="s">
-        <v>374</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -8350,14 +8347,14 @@
         <v>18</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="F79" s="10">
         <v>57.79</v>
@@ -8375,28 +8372,28 @@
         <v>54</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M79" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="N79" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="N79" s="10" t="s">
+      <c r="O79" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="O79" s="10" t="s">
+      <c r="P79" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="P79" s="10" t="s">
+      <c r="Q79" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="R79" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="Q79" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="R79" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
@@ -8412,14 +8409,14 @@
         <v>18</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="F80" s="6">
         <v>57.052599999999998</v>
@@ -8437,28 +8434,28 @@
         <v>54</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L80" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M80" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="N80" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="N80" s="6" t="s">
+      <c r="O80" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="O80" s="6" t="s">
+      <c r="P80" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="R80" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q80" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="R80" s="10" t="s">
-        <v>402</v>
       </c>
       <c r="S80" s="11"/>
       <c r="T80" s="6"/>
@@ -8474,14 +8471,14 @@
         <v>18</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="F81" s="6">
         <v>50.116</v>
@@ -8499,28 +8496,28 @@
         <v>54</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L81" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M81" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N81" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N81" s="6" t="s">
+      <c r="O81" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="R81" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="O81" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="P81" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="S81" s="11"/>
       <c r="T81" s="6"/>
@@ -8536,14 +8533,14 @@
         <v>18</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E82" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>412</v>
       </c>
       <c r="F82" s="10">
         <v>61.131700000000002</v>
@@ -8561,28 +8558,28 @@
         <v>54</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M82" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="N82" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="N82" s="10" t="s">
+      <c r="O82" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="P82" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q82" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="O82" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="P82" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q82" s="10" t="s">
+      <c r="R82" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="R82" s="10" t="s">
-        <v>417</v>
       </c>
       <c r="S82" s="11"/>
       <c r="T82" s="6"/>
@@ -8598,14 +8595,14 @@
         <v>18</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>420</v>
       </c>
       <c r="F83" s="10">
         <v>61.141800000000003</v>
@@ -8623,28 +8620,28 @@
         <v>54</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M83" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="N83" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="N83" s="10" t="s">
+      <c r="O83" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="P83" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q83" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="O83" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="P83" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q83" s="10" t="s">
+      <c r="R83" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="R83" s="10" t="s">
-        <v>417</v>
       </c>
       <c r="S83" s="11"/>
       <c r="T83" s="6"/>
@@ -8657,17 +8654,17 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>421</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>422</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>424</v>
       </c>
       <c r="F84" s="10">
         <v>57.089100000000002</v>
@@ -8685,28 +8682,28 @@
         <v>54</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M84" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="N84" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="N84" s="10" t="s">
-        <v>415</v>
-      </c>
       <c r="O84" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P84" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q84" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="R84" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="R84" s="10" t="s">
-        <v>427</v>
       </c>
       <c r="S84" s="11"/>
       <c r="T84" s="6"/>
@@ -8722,14 +8719,14 @@
         <v>18</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E85" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="F85" s="10">
         <v>61.028799999999997</v>
@@ -8747,28 +8744,28 @@
         <v>54</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M85" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="N85" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="N85" s="10" t="s">
-        <v>415</v>
-      </c>
       <c r="O85" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P85" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q85" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="R85" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="R85" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="S85" s="11"/>
       <c r="T85" s="6"/>
@@ -8781,17 +8778,17 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="F86" s="10">
         <v>59.215600000000002</v>
@@ -8809,28 +8806,28 @@
         <v>54</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M86" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="N86" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="N86" s="10" t="s">
-        <v>415</v>
-      </c>
       <c r="O86" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P86" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q86" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="R86" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="R86" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="S86" s="11"/>
       <c r="T86" s="6"/>
@@ -8846,14 +8843,14 @@
         <v>18</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>442</v>
       </c>
       <c r="F87" s="10">
         <v>69.683599999999998</v>
@@ -8871,28 +8868,28 @@
         <v>54</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M87" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="N87" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="N87" s="10" t="s">
-        <v>415</v>
-      </c>
       <c r="O87" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P87" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q87" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="R87" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="R87" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="S87" s="11"/>
       <c r="T87" s="6"/>
@@ -8908,14 +8905,14 @@
         <v>18</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="F88" s="6">
         <v>58.198839999999997</v>
@@ -8927,34 +8924,34 @@
         <v>72</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L88" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M88" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O88" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="N88" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="O88" s="6" t="s">
+      <c r="P88" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="P88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="Q88" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="R88" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="S88" s="11"/>
       <c r="T88" s="6"/>
@@ -8970,14 +8967,14 @@
         <v>18</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>462</v>
       </c>
       <c r="F89" s="10">
         <v>59.572699999999998</v>
@@ -8989,34 +8986,34 @@
         <v>72</v>
       </c>
       <c r="I89" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M89" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="N89" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="N89" s="10" t="s">
+      <c r="O89" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="P89" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="O89" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="P89" s="10" t="s">
-        <v>467</v>
-      </c>
       <c r="Q89" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="S89" s="11"/>
       <c r="T89" s="6"/>
@@ -9032,14 +9029,14 @@
         <v>18</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="F90" s="6">
         <v>63.484000000000002</v>
@@ -9051,34 +9048,34 @@
         <v>72</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L90" s="6" t="s">
         <v>74</v>
       </c>
       <c r="M90" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="P90" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="N90" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="O90" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="P90" s="6" t="s">
-        <v>474</v>
-      </c>
       <c r="Q90" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S90" s="11"/>
       <c r="T90" s="6"/>
@@ -9091,17 +9088,17 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E91" s="10" t="s">
         <v>476</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>477</v>
       </c>
       <c r="F91" s="10">
         <v>71.314999999999998</v>
@@ -9125,22 +9122,22 @@
         <v>74</v>
       </c>
       <c r="M91" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="N91" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="N91" s="10" t="s">
+      <c r="O91" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="O91" s="10" t="s">
+      <c r="P91" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="P91" s="10" t="s">
+      <c r="Q91" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="R91" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="Q91" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="R91" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="S91" s="11"/>
       <c r="T91" s="6"/>
@@ -9156,16 +9153,16 @@
         <v>18</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="F92" s="6">
         <v>60.793332999999997</v>
@@ -9183,28 +9180,28 @@
         <v>54</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M92" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O92" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="N92" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="O92" s="22" t="s">
+      <c r="P92" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="P92" s="10" t="s">
+      <c r="Q92" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="Q92" s="22" t="s">
+      <c r="R92" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="R92" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -9220,16 +9217,16 @@
         <v>18</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="D93" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="F93" s="6">
         <v>66.074600000000004</v>
@@ -9241,34 +9238,34 @@
         <v>72</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L93" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M93" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O93" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="N93" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="O93" s="22" t="s">
-        <v>489</v>
-      </c>
       <c r="P93" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q93" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="R93" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="Q93" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="R93" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
@@ -9281,17 +9278,17 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>501</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>502</v>
       </c>
       <c r="F94" s="10">
         <v>59.037500000000001</v>
@@ -9318,19 +9315,19 @@
         <v>18</v>
       </c>
       <c r="N94" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="O94" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="O94" s="19" t="s">
+      <c r="P94" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q94" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="R94" s="19" t="s">
         <v>504</v>
-      </c>
-      <c r="P94" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q94" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="R94" s="19" t="s">
-        <v>505</v>
       </c>
       <c r="S94" s="42"/>
       <c r="T94" s="42"/>
@@ -9346,20 +9343,20 @@
         <v>18</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="F95" s="6">
         <v>59.605499999999999</v>
       </c>
       <c r="G95" s="6">
-        <v>151.4221</v>
+        <v>-151.4221</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>72</v>
@@ -9371,28 +9368,28 @@
         <v>54</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L95" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M95" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O95" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="N95" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="O95" s="22" t="s">
-        <v>489</v>
-      </c>
       <c r="P95" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q95" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="R95" s="10" t="s">
         <v>509</v>
-      </c>
-      <c r="Q95" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="R95" s="10" t="s">
-        <v>510</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
@@ -9408,16 +9405,16 @@
         <v>18</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="D96" s="10" t="s">
+      <c r="E96" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="F96" s="10">
         <v>59.939</v>
@@ -9435,28 +9432,28 @@
         <v>54</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M96" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="N96" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="O96" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="N96" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="O96" s="41" t="s">
-        <v>489</v>
-      </c>
       <c r="P96" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q96" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R96" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
@@ -9472,14 +9469,14 @@
         <v>18</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="F97" s="10">
         <v>67.730800000000002</v>
@@ -9497,25 +9494,25 @@
         <v>54</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M97" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="N97" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="O97" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="N97" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="O97" s="41" t="s">
-        <v>489</v>
-      </c>
       <c r="P97" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q97" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R97" s="10"/>
       <c r="S97" s="6"/>
@@ -9532,16 +9529,16 @@
         <v>18</v>
       </c>
       <c r="B98" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>519</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>520</v>
       </c>
       <c r="F98" s="10">
         <v>66.895034999999993</v>
@@ -9553,34 +9550,34 @@
         <v>72</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J98" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M98" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="N98" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="O98" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="N98" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="O98" s="41" t="s">
-        <v>489</v>
-      </c>
       <c r="P98" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q98" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R98" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
@@ -9596,16 +9593,16 @@
         <v>18</v>
       </c>
       <c r="B99" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>809</v>
+      </c>
+      <c r="D99" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="C99" s="43" t="s">
-        <v>810</v>
-      </c>
-      <c r="D99" s="43" t="s">
+      <c r="E99" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="F99" s="43">
         <v>59.879800000000003</v>
@@ -9623,28 +9620,28 @@
         <v>54</v>
       </c>
       <c r="K99" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L99" s="43" t="s">
         <v>24</v>
       </c>
       <c r="M99" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="N99" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="O99" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="N99" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="O99" s="41" t="s">
-        <v>489</v>
-      </c>
       <c r="P99" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q99" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="R99" s="10" t="s">
         <v>526</v>
-      </c>
-      <c r="Q99" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="R99" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="S99" s="45"/>
       <c r="T99" s="22"/>
@@ -9660,14 +9657,14 @@
         <v>18</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="F100" s="7">
         <v>58.732100000000003</v>
@@ -9691,19 +9688,19 @@
         <v>74</v>
       </c>
       <c r="M100" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="P100" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="N100" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="O100" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="P100" s="6" t="s">
-        <v>532</v>
-      </c>
       <c r="Q100" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
@@ -9720,14 +9717,14 @@
         <v>18</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C101" s="45"/>
       <c r="D101" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="E101" s="42" t="s">
         <v>534</v>
-      </c>
-      <c r="E101" s="42" t="s">
-        <v>535</v>
       </c>
       <c r="F101" s="45">
         <v>56.004100000000001</v>
@@ -9745,28 +9742,28 @@
         <v>54</v>
       </c>
       <c r="K101" s="45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L101" s="45" t="s">
         <v>24</v>
       </c>
       <c r="M101" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="N101" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="O101" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q101" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="R101" s="10" t="s">
         <v>537</v>
-      </c>
-      <c r="N101" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="O101" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="P101" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q101" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="R101" s="10" t="s">
-        <v>538</v>
       </c>
       <c r="S101" s="45"/>
       <c r="T101" s="22"/>
@@ -9782,16 +9779,16 @@
         <v>18</v>
       </c>
       <c r="B102" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="F102" s="10">
         <v>60.578200000000002</v>
@@ -9806,31 +9803,31 @@
         <v>42129</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M102" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="O102" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="N102" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="O102" s="22" t="s">
+      <c r="P102" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="P102" s="6" t="s">
+      <c r="Q102" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="Q102" s="22" t="s">
-        <v>491</v>
-      </c>
       <c r="R102" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S102" s="22"/>
       <c r="T102" s="22"/>
@@ -9846,14 +9843,14 @@
         <v>18</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E103" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>547</v>
       </c>
       <c r="F103" s="10">
         <v>60.7774</v>
@@ -9865,34 +9862,34 @@
         <v>72</v>
       </c>
       <c r="I103" s="47" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J103" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O103" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="P103" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q103" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="R103" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="P103" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q103" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="R103" s="10" t="s">
-        <v>550</v>
       </c>
       <c r="S103" s="22"/>
       <c r="T103" s="22"/>
@@ -9908,14 +9905,14 @@
         <v>18</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="F104" s="6">
         <v>60.805</v>
@@ -9933,28 +9930,28 @@
         <v>54</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N104" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O104" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P104" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P104" s="6" t="s">
+      <c r="Q104" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="Q104" s="6" t="s">
+      <c r="R104" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="R104" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
@@ -9970,14 +9967,14 @@
         <v>18</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F105" s="6">
         <v>60.555</v>
@@ -9995,28 +9992,28 @@
         <v>54</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N105" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O105" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P105" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P105" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="Q105" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R105" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
@@ -10032,14 +10029,14 @@
         <v>18</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F106" s="6">
         <v>60.335000000000001</v>
@@ -10057,28 +10054,28 @@
         <v>54</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N106" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O106" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P106" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P106" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="Q106" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
@@ -10094,14 +10091,14 @@
         <v>18</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F107" s="6">
         <v>60.055</v>
@@ -10119,28 +10116,28 @@
         <v>54</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L107" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N107" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O107" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P107" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P107" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="Q107" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R107" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
@@ -10156,14 +10153,14 @@
         <v>18</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F108" s="6">
         <v>60.875</v>
@@ -10181,28 +10178,28 @@
         <v>54</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L108" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N108" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O108" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P108" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P108" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="Q108" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
@@ -10218,14 +10215,14 @@
         <v>18</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F109" s="6">
         <v>60.435000000000002</v>
@@ -10243,28 +10240,28 @@
         <v>54</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L109" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N109" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O109" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P109" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P109" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="Q109" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
@@ -10280,14 +10277,14 @@
         <v>18</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F110" s="6">
         <v>60.234999999999999</v>
@@ -10305,28 +10302,28 @@
         <v>54</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L110" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N110" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O110" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P110" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P110" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="Q110" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R110" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
@@ -10342,14 +10339,14 @@
         <v>18</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F111" s="6">
         <v>61.085000000000001</v>
@@ -10367,28 +10364,28 @@
         <v>54</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N111" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O111" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="P111" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="P111" s="6" t="s">
+      <c r="Q111" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="Q111" s="6" t="s">
+      <c r="R111" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="R111" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
@@ -10404,14 +10401,14 @@
         <v>18</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="F112" s="15">
         <v>59.772413399999998</v>
@@ -10429,28 +10426,28 @@
         <v>54</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N112" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O112" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q112" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="P112" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q112" s="6" t="s">
+      <c r="R112" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="R112" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
@@ -10466,14 +10463,14 @@
         <v>18</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="F113" s="15">
         <v>61.767510000000001</v>
@@ -10491,28 +10488,28 @@
         <v>54</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L113" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N113" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O113" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q113" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="P113" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q113" s="6" t="s">
-        <v>582</v>
-      </c>
       <c r="R113" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
@@ -10528,14 +10525,14 @@
         <v>18</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="F114" s="6">
         <v>60.453040000000001</v>
@@ -10553,28 +10550,28 @@
         <v>54</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L114" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N114" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O114" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q114" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="P114" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q114" s="6" t="s">
-        <v>582</v>
-      </c>
       <c r="R114" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
@@ -10590,14 +10587,14 @@
         <v>18</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>596</v>
       </c>
       <c r="F115" s="7">
         <v>59.798299999999998</v>
@@ -10615,28 +10612,28 @@
         <v>54</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L115" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N115" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O115" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="P115" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="P115" s="6" t="s">
+      <c r="Q115" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="Q115" s="6" t="s">
+      <c r="R115" s="10" t="s">
         <v>601</v>
-      </c>
-      <c r="R115" s="10" t="s">
-        <v>602</v>
       </c>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
@@ -10652,14 +10649,14 @@
         <v>18</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>605</v>
       </c>
       <c r="F116" s="7">
         <v>61.091000000000001</v>
@@ -10668,7 +10665,7 @@
         <v>-146.3766</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I116" s="8">
         <v>43729</v>
@@ -10677,28 +10674,28 @@
         <v>54</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L116" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N116" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O116" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q116" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="P116" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q116" s="6" t="s">
+      <c r="R116" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="R116" s="10" t="s">
-        <v>609</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
@@ -10714,14 +10711,14 @@
         <v>18</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F117" s="7">
         <v>61.122500000000002</v>
@@ -10730,7 +10727,7 @@
         <v>-146.29669999999999</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I117" s="8">
         <v>43729</v>
@@ -10739,28 +10736,28 @@
         <v>54</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L117" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O117" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q117" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="P117" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q117" s="6" t="s">
+      <c r="R117" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="R117" s="10" t="s">
-        <v>609</v>
       </c>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
@@ -10773,17 +10770,17 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>614</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>615</v>
       </c>
       <c r="F118" s="48">
         <v>51.705100000000002</v>
@@ -10792,7 +10789,7 @@
         <v>-176.5985</v>
       </c>
       <c r="H118" s="48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I118" s="27">
         <v>44788</v>
@@ -10801,28 +10798,28 @@
         <v>54</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L118" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M118" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N118" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O118" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="P118" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="P118" s="10" t="s">
+      <c r="Q118" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="Q118" s="10" t="s">
+      <c r="R118" s="49" t="s">
         <v>620</v>
-      </c>
-      <c r="R118" s="49" t="s">
-        <v>621</v>
       </c>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
@@ -10838,14 +10835,14 @@
         <v>18</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>623</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>624</v>
       </c>
       <c r="F119" s="48">
         <v>51.683500000000002</v>
@@ -10854,37 +10851,37 @@
         <v>-176.58789999999999</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I119" s="27">
         <v>44788</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M119" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N119" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O119" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="P119" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="P119" s="10" t="s">
+      <c r="Q119" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="Q119" s="10" t="s">
-        <v>620</v>
-      </c>
       <c r="R119" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
@@ -10897,23 +10894,23 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>628</v>
       </c>
       <c r="F120" s="48">
         <v>51.707999999999998</v>
       </c>
       <c r="G120" s="48">
-        <v>176.6062</v>
+        <v>-176.6062</v>
       </c>
       <c r="H120" s="48" t="s">
         <v>72</v>
@@ -10925,28 +10922,28 @@
         <v>54</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M120" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N120" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O120" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P120" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q120" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="Q120" s="10" t="s">
-        <v>630</v>
-      </c>
       <c r="R120" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
@@ -10959,17 +10956,17 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>657</v>
       </c>
       <c r="F121" s="48">
         <v>51.756399999999999</v>
@@ -10978,7 +10975,7 @@
         <v>-176.33080000000001</v>
       </c>
       <c r="H121" s="48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I121" s="27">
         <v>44789</v>
@@ -10987,28 +10984,28 @@
         <v>54</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M121" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N121" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O121" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="P121" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="P121" s="10" t="s">
+      <c r="Q121" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="Q121" s="10" t="s">
+      <c r="R121" s="49" t="s">
         <v>620</v>
-      </c>
-      <c r="R121" s="49" t="s">
-        <v>621</v>
       </c>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
@@ -11024,14 +11021,14 @@
         <v>18</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>659</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>660</v>
       </c>
       <c r="F122" s="48">
         <v>51.738300000000002</v>
@@ -11040,7 +11037,7 @@
         <v>-176.3032</v>
       </c>
       <c r="H122" s="48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I122" s="27">
         <v>44789</v>
@@ -11049,28 +11046,28 @@
         <v>54</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N122" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O122" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="P122" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="P122" s="10" t="s">
+      <c r="Q122" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="Q122" s="10" t="s">
-        <v>620</v>
-      </c>
       <c r="R122" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
@@ -11086,14 +11083,14 @@
         <v>18</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>663</v>
       </c>
       <c r="F123" s="7">
         <v>53.615099999999998</v>
@@ -11102,7 +11099,7 @@
         <v>-167.0489</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I123" s="8">
         <v>44435</v>
@@ -11111,28 +11108,28 @@
         <v>54</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L123" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N123" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O123" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="P123" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="P123" s="6" t="s">
-        <v>619</v>
-      </c>
       <c r="Q123" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R123" s="51" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
@@ -11148,14 +11145,14 @@
         <v>18</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="F124" s="7">
         <v>53.631500000000003</v>
@@ -11164,7 +11161,7 @@
         <v>-167.0598</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I124" s="8">
         <v>44435</v>
@@ -11173,28 +11170,28 @@
         <v>54</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L124" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N124" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O124" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="P124" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="P124" s="6" t="s">
+      <c r="Q124" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="Q124" s="22" t="s">
-        <v>620</v>
-      </c>
       <c r="R124" s="51" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
@@ -11210,14 +11207,14 @@
         <v>18</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>670</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>671</v>
       </c>
       <c r="F125" s="48">
         <v>53.618499999999997</v>
@@ -11235,28 +11232,28 @@
         <v>54</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M125" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N125" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O125" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P125" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q125" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="Q125" s="10" t="s">
-        <v>630</v>
-      </c>
       <c r="R125" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
@@ -11272,14 +11269,14 @@
         <v>18</v>
       </c>
       <c r="B126" s="52" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>673</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>674</v>
       </c>
       <c r="F126" s="48">
         <v>51.874400000000001</v>
@@ -11288,7 +11285,7 @@
         <v>-176.74430000000001</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I126" s="27">
         <v>44785</v>
@@ -11297,28 +11294,28 @@
         <v>54</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L126" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M126" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N126" s="10" t="s">
         <v>26</v>
       </c>
       <c r="O126" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="P126" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="P126" s="10" t="s">
+      <c r="Q126" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="Q126" s="41" t="s">
-        <v>620</v>
-      </c>
       <c r="R126" s="49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
@@ -11334,14 +11331,14 @@
         <v>18</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F127" s="48">
         <v>57.120800000000003</v>
@@ -11350,16 +11347,16 @@
         <v>-170.38249999999999</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I127" s="27">
         <v>44824</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K127" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>46</v>
@@ -11369,16 +11366,16 @@
         <v>26</v>
       </c>
       <c r="O127" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P127" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q127" s="53" t="s">
         <v>619</v>
       </c>
-      <c r="Q127" s="53" t="s">
-        <v>620</v>
-      </c>
       <c r="R127" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
@@ -11394,16 +11391,16 @@
         <v>18</v>
       </c>
       <c r="B128" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="D128" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="E128" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>682</v>
       </c>
       <c r="F128" s="48">
         <v>60.558300000000003</v>
@@ -11415,34 +11412,34 @@
         <v>72</v>
       </c>
       <c r="I128" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J128" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K128" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M128" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="N128" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="O128" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="P128" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="N128" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="O128" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="P128" s="10" t="s">
+      <c r="Q128" s="53" t="s">
         <v>686</v>
       </c>
-      <c r="Q128" s="53" t="s">
+      <c r="R128" s="10" t="s">
         <v>687</v>
-      </c>
-      <c r="R128" s="10" t="s">
-        <v>688</v>
       </c>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
@@ -11458,16 +11455,16 @@
         <v>18</v>
       </c>
       <c r="B129" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="D129" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="E129" s="10" t="s">
         <v>691</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>692</v>
       </c>
       <c r="F129" s="48">
         <v>61.124200000000002</v>
@@ -11479,34 +11476,34 @@
         <v>72</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J129" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K129" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M129" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="N129" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="P129" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="N129" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="O129" s="10" t="s">
+      <c r="Q129" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="R129" s="10" t="s">
         <v>694</v>
-      </c>
-      <c r="P129" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q129" s="53" t="s">
-        <v>687</v>
-      </c>
-      <c r="R129" s="10" t="s">
-        <v>695</v>
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
@@ -11627,14 +11624,14 @@
         <v>18</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>376</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>377</v>
       </c>
       <c r="F2" s="33">
         <v>60.099200000000003</v>
@@ -11649,31 +11646,31 @@
         <v>2013</v>
       </c>
       <c r="J2" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>378</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>379</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="O2" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="P2" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="R2" s="33" t="s">
         <v>384</v>
-      </c>
-      <c r="R2" s="33" t="s">
-        <v>385</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
@@ -11689,16 +11686,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" s="37">
         <v>2015</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>446</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>447</v>
       </c>
       <c r="F3" s="37">
         <v>61.236899999999999</v>
@@ -11710,34 +11707,34 @@
         <v>72</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L3" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M3" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="N3" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="N3" s="37" t="s">
-        <v>415</v>
-      </c>
       <c r="O3" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q3" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="R3" s="37" t="s">
         <v>449</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>450</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="6"/>
@@ -11753,16 +11750,16 @@
         <v>18</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>632</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>633</v>
       </c>
       <c r="F4" s="50">
         <v>56.001399999999997</v>
@@ -11771,7 +11768,7 @@
         <v>-161.21190000000001</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I4" s="39">
         <v>44473</v>
@@ -11780,28 +11777,28 @@
         <v>342</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L4" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M4" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="O4" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="P4" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="R4" s="37" t="s">
         <v>637</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="R4" s="37" t="s">
-        <v>638</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -11817,16 +11814,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F5" s="50">
         <v>56.001300000000001</v>
@@ -11835,7 +11832,7 @@
         <v>-161.21199999999999</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I5" s="39">
         <v>44514</v>
@@ -11844,28 +11841,28 @@
         <v>342</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L5" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N5" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="O5" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="P5" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="R5" s="37" t="s">
         <v>637</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>638</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -11881,16 +11878,16 @@
         <v>18</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>643</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>644</v>
       </c>
       <c r="F6" s="50">
         <v>58.619100000000003</v>
@@ -11899,37 +11896,37 @@
         <v>-157.3527</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>342</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L6" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="N6" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="O6" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="P6" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="R6" s="37" t="s">
         <v>649</v>
-      </c>
-      <c r="P6" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>650</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -11945,16 +11942,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>652</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>653</v>
       </c>
       <c r="F7" s="50">
         <v>59.022399999999998</v>
@@ -11963,7 +11960,7 @@
         <v>-158.5104</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I7" s="39">
         <v>44341</v>
@@ -11972,28 +11969,28 @@
         <v>342</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L7" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="N7" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="O7" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="O7" s="37" t="s">
-        <v>649</v>
-      </c>
       <c r="P7" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q7" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="Q7" s="37" t="s">
-        <v>620</v>
-      </c>
       <c r="R7" s="37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -12034,7 +12031,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -12065,7 +12062,7 @@
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -12095,7 +12092,7 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="54"/>
       <c r="B14" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -12152,10 +12149,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>699</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>700</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -12313,7 +12310,7 @@
         <v>60</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="6"/>
@@ -12333,7 +12330,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>64</v>
@@ -12375,7 +12372,7 @@
         <v>66</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="6"/>
@@ -12391,11 +12388,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>250</v>
@@ -12413,7 +12410,7 @@
         <v>42129</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K4" s="59" t="s">
         <v>18</v>
@@ -12422,7 +12419,7 @@
         <v>332</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N4" s="59" t="s">
         <v>76</v>
@@ -12437,7 +12434,7 @@
         <v>78</v>
       </c>
       <c r="R4" s="59" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S4" s="59"/>
       <c r="T4" s="59"/>
@@ -12453,11 +12450,11 @@
         <v>18</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>83</v>
@@ -12475,7 +12472,7 @@
         <v>42187</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K5" s="59" t="s">
         <v>93</v>
@@ -12484,7 +12481,7 @@
         <v>46</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N5" s="59" t="s">
         <v>76</v>
@@ -12499,7 +12496,7 @@
         <v>78</v>
       </c>
       <c r="R5" s="59" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S5" s="59"/>
       <c r="T5" s="59"/>
@@ -12515,11 +12512,11 @@
         <v>18</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6" s="59" t="s">
         <v>83</v>
@@ -12534,10 +12531,10 @@
         <v>72</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K6" s="59" t="s">
         <v>93</v>
@@ -12561,7 +12558,7 @@
         <v>78</v>
       </c>
       <c r="R6" s="59" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S6" s="62"/>
       <c r="T6" s="59"/>
@@ -12577,11 +12574,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E7" s="59" t="s">
         <v>92</v>
@@ -12599,7 +12596,7 @@
         <v>317</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K7" s="62" t="s">
         <v>18</v>
@@ -12623,7 +12620,7 @@
         <v>78</v>
       </c>
       <c r="R7" s="59" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S7" s="62"/>
       <c r="T7" s="62"/>
@@ -12639,14 +12636,14 @@
         <v>18</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>720</v>
       </c>
       <c r="F8" s="6">
         <v>55.315600000000003</v>
@@ -12658,35 +12655,35 @@
         <v>72</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>332</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>76</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P8" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="64" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -12701,14 +12698,14 @@
         <v>18</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="F9" s="6">
         <v>60.099200000000003</v>
@@ -12723,31 +12720,31 @@
         <v>2013</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Q9" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="R9" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -12763,16 +12760,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>632</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>633</v>
       </c>
       <c r="F11" s="50">
         <v>56.001399999999997</v>
@@ -12781,7 +12778,7 @@
         <v>-161.21190000000001</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I11" s="39">
         <v>44473</v>
@@ -12790,28 +12787,28 @@
         <v>342</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="N11" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="O11" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="P11" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="R11" s="37" t="s">
         <v>637</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>638</v>
       </c>
       <c r="S11" s="65"/>
     </row>
@@ -12820,16 +12817,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F12" s="50">
         <v>56.001300000000001</v>
@@ -12838,7 +12835,7 @@
         <v>-161.21199999999999</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I12" s="39">
         <v>44514</v>
@@ -12847,28 +12844,28 @@
         <v>342</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L12" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N12" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="O12" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="P12" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="R12" s="37" t="s">
         <v>637</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="409.5">
@@ -12876,16 +12873,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>643</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>644</v>
       </c>
       <c r="F13" s="50">
         <v>58.619100000000003</v>
@@ -12894,37 +12891,37 @@
         <v>-157.3527</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>342</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L13" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M13" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="N13" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="O13" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="P13" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="R13" s="37" t="s">
         <v>649</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="R13" s="37" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="409.5">
@@ -12932,16 +12929,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>652</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>653</v>
       </c>
       <c r="F14" s="50">
         <v>59.022399999999998</v>
@@ -12950,7 +12947,7 @@
         <v>-158.5104</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I14" s="39">
         <v>44341</v>
@@ -12959,28 +12956,28 @@
         <v>342</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L14" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M14" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="N14" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="O14" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="O14" s="37" t="s">
-        <v>649</v>
-      </c>
       <c r="P14" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q14" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="Q14" s="37" t="s">
-        <v>620</v>
-      </c>
       <c r="R14" s="37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="409.5">
@@ -12988,16 +12985,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="37">
         <v>2015</v>
       </c>
       <c r="D15" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>446</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>447</v>
       </c>
       <c r="F15" s="37">
         <v>61.236899999999999</v>
@@ -13009,34 +13006,34 @@
         <v>72</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J15" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L15" s="37" t="s">
         <v>46</v>
       </c>
       <c r="M15" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="N15" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="N15" s="37" t="s">
-        <v>415</v>
-      </c>
       <c r="O15" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q15" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="R15" s="37" t="s">
         <v>449</v>
-      </c>
-      <c r="R15" s="37" t="s">
-        <v>450</v>
       </c>
       <c r="S15" s="11"/>
       <c r="T15" s="6"/>
@@ -14131,23 +14128,23 @@
         <v>18</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="E2" s="59" t="s">
         <v>727</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="F2" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="G2" s="59" t="s">
         <v>729</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="H2" s="59" t="s">
         <v>730</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>731</v>
       </c>
       <c r="I2" s="60">
         <v>35713</v>
@@ -14156,7 +14153,7 @@
         <v>54</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L2" s="59" t="s">
         <v>24</v>
@@ -14174,10 +14171,10 @@
         <v>18</v>
       </c>
       <c r="Q2" s="59" t="s">
+        <v>732</v>
+      </c>
+      <c r="R2" s="59" t="s">
         <v>733</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>734</v>
       </c>
       <c r="S2" s="59"/>
       <c r="T2" s="59"/>
@@ -14193,23 +14190,23 @@
         <v>18</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67" t="s">
+        <v>735</v>
+      </c>
+      <c r="E3" s="67" t="s">
         <v>736</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="F3" s="68" t="s">
         <v>737</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>738</v>
       </c>
-      <c r="G3" s="67" t="s">
-        <v>739</v>
-      </c>
       <c r="H3" s="67" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I3" s="69">
         <v>2008</v>
@@ -14224,22 +14221,22 @@
         <v>74</v>
       </c>
       <c r="M3" s="67" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N3" s="67" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="P3" s="67" t="s">
         <v>740</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="Q3" s="67" t="s">
         <v>741</v>
       </c>
-      <c r="Q3" s="67" t="s">
+      <c r="R3" s="67" t="s">
         <v>742</v>
-      </c>
-      <c r="R3" s="67" t="s">
-        <v>743</v>
       </c>
       <c r="S3" s="67"/>
       <c r="T3" s="67"/>
@@ -14257,19 +14254,19 @@
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62" t="s">
+        <v>743</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>744</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="F4" s="59" t="s">
         <v>745</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="G4" s="59" t="s">
         <v>746</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>747</v>
-      </c>
       <c r="H4" s="62" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I4" s="59">
         <v>2009</v>
@@ -14278,28 +14275,28 @@
         <v>54</v>
       </c>
       <c r="K4" s="62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="L4" s="62" t="s">
         <v>46</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N4" s="62" t="s">
         <v>76</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P4" s="62" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q4" s="62" t="s">
         <v>749</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="R4" s="71" t="s">
         <v>750</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>751</v>
       </c>
       <c r="S4" s="62"/>
       <c r="T4" s="62"/>
@@ -14317,19 +14314,19 @@
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62" t="s">
+        <v>751</v>
+      </c>
+      <c r="E5" s="62" t="s">
         <v>752</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="F5" s="59" t="s">
         <v>753</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="G5" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="H5" s="62" t="s">
         <v>755</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>756</v>
       </c>
       <c r="I5" s="59">
         <v>2000</v>
@@ -14338,28 +14335,28 @@
         <v>54</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N5" s="62" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="62" t="s">
+        <v>758</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q5" s="62" t="s">
         <v>759</v>
       </c>
-      <c r="P5" s="62" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q5" s="62" t="s">
+      <c r="R5" s="71" t="s">
         <v>760</v>
-      </c>
-      <c r="R5" s="71" t="s">
-        <v>761</v>
       </c>
       <c r="S5" s="62"/>
       <c r="T5" s="62"/>
@@ -14377,16 +14374,16 @@
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72" t="s">
+        <v>761</v>
+      </c>
+      <c r="E7" s="62" t="s">
         <v>762</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="F7" s="62" t="s">
         <v>763</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="G7" s="72" t="s">
         <v>764</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>765</v>
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="73">
@@ -14396,28 +14393,28 @@
         <v>54</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="62" t="s">
+        <v>766</v>
+      </c>
+      <c r="N7" s="72" t="s">
         <v>767</v>
       </c>
-      <c r="N7" s="72" t="s">
+      <c r="O7" s="59" t="s">
         <v>768</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="P7" s="72" t="s">
         <v>769</v>
       </c>
-      <c r="P7" s="72" t="s">
+      <c r="Q7" s="62" t="s">
         <v>770</v>
       </c>
-      <c r="Q7" s="62" t="s">
+      <c r="R7" s="62" t="s">
         <v>771</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>772</v>
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
@@ -14489,21 +14486,21 @@
         <v>18</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
       <c r="E10" s="59" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F10" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="G10" s="59" t="s">
         <v>738</v>
       </c>
-      <c r="G10" s="59" t="s">
-        <v>739</v>
-      </c>
       <c r="H10" s="72" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I10" s="74">
         <v>43282</v>
@@ -14518,19 +14515,19 @@
         <v>74</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N10" s="72" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="72" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P10" s="72" t="s">
         <v>18</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R10" s="72"/>
       <c r="S10" s="72"/>
@@ -14545,7 +14542,7 @@
     <row r="13" spans="1:26">
       <c r="A13" s="75"/>
       <c r="B13" s="76" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -15647,10 +15644,10 @@
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>779</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>780</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -15669,7 +15666,7 @@
         <v>75</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>93</v>
@@ -15679,7 +15676,7 @@
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="41" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S3" s="42"/>
       <c r="T3" s="42"/>
@@ -15696,13 +15693,13 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>783</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F4" s="10">
         <v>66.900999999999996</v>
@@ -15752,13 +15749,13 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>785</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F5" s="10">
         <v>57.463000000000001</v>
@@ -15779,7 +15776,7 @@
         <v>75</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O5" s="19" t="s">
         <v>93</v>
@@ -15804,13 +15801,13 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>787</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F6" s="48">
         <v>55.34</v>
@@ -15831,7 +15828,7 @@
         <v>75</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>93</v>
@@ -15856,13 +15853,13 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>789</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F7" s="10">
         <v>59.383000000000003</v>
@@ -15883,7 +15880,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O7" s="19" t="s">
         <v>93</v>
@@ -15909,10 +15906,10 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -15929,7 +15926,7 @@
         <v>75</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O8" s="19" t="s">
         <v>93</v>
@@ -43816,58 +43813,58 @@
     </row>
     <row r="2" spans="1:26" ht="180">
       <c r="A2" s="77" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>791</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="C2" s="77" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="D2" s="77" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="E2" s="77" t="s">
         <v>794</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>795</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="G2" s="78" t="s">
+        <v>795</v>
+      </c>
+      <c r="H2" s="77" t="s">
         <v>796</v>
       </c>
-      <c r="G2" s="78" t="s">
-        <v>796</v>
-      </c>
-      <c r="H2" s="77" t="s">
+      <c r="I2" s="77" t="s">
         <v>797</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="J2" s="77" t="s">
         <v>798</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="K2" s="77" t="s">
         <v>799</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="L2" s="77" t="s">
         <v>800</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="M2" s="77" t="s">
         <v>801</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="N2" s="77" t="s">
         <v>802</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="O2" s="77" t="s">
         <v>803</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="P2" s="77" t="s">
         <v>804</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="Q2" s="79" t="s">
         <v>805</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="R2" s="77" t="s">
         <v>806</v>
-      </c>
-      <c r="R2" s="77" t="s">
-        <v>807</v>
       </c>
       <c r="S2" s="77"/>
       <c r="T2" s="77"/>
